--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.200778</v>
+        <v>1.352356</v>
       </c>
       <c r="H2">
-        <v>3.602334</v>
+        <v>4.057068</v>
       </c>
       <c r="I2">
-        <v>0.07334464402956963</v>
+        <v>0.08465764667810434</v>
       </c>
       <c r="J2">
-        <v>0.08784648530804996</v>
+        <v>0.1020450778651008</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N2">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O2">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P2">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q2">
-        <v>65.36033342733067</v>
+        <v>75.439273990396</v>
       </c>
       <c r="R2">
-        <v>588.243000845976</v>
+        <v>678.9534659135641</v>
       </c>
       <c r="S2">
-        <v>0.01634801348310671</v>
+        <v>0.01974397656370887</v>
       </c>
       <c r="T2">
-        <v>0.02044387914785805</v>
+        <v>0.02443338738451515</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.200778</v>
+        <v>1.352356</v>
       </c>
       <c r="H3">
-        <v>3.602334</v>
+        <v>4.057068</v>
       </c>
       <c r="I3">
-        <v>0.07334464402956963</v>
+        <v>0.08465764667810434</v>
       </c>
       <c r="J3">
-        <v>0.08784648530804996</v>
+        <v>0.1020450778651008</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>380.128601</v>
       </c>
       <c r="O3">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P3">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q3">
-        <v>152.1500204171927</v>
+        <v>171.3563981113187</v>
       </c>
       <c r="R3">
-        <v>1369.350183754734</v>
+        <v>1542.207583001868</v>
       </c>
       <c r="S3">
-        <v>0.03805596536622215</v>
+        <v>0.04484741871696905</v>
       </c>
       <c r="T3">
-        <v>0.04759058693009268</v>
+        <v>0.05549917217392714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.200778</v>
+        <v>1.352356</v>
       </c>
       <c r="H4">
-        <v>3.602334</v>
+        <v>4.057068</v>
       </c>
       <c r="I4">
-        <v>0.07334464402956963</v>
+        <v>0.08465764667810434</v>
       </c>
       <c r="J4">
-        <v>0.08784648530804996</v>
+        <v>0.1020450778651008</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N4">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O4">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P4">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q4">
-        <v>21.00314901895201</v>
+        <v>31.15489909607333</v>
       </c>
       <c r="R4">
-        <v>189.028341170568</v>
+        <v>280.39409186466</v>
       </c>
       <c r="S4">
-        <v>0.005253335552996885</v>
+        <v>0.008153864228278445</v>
       </c>
       <c r="T4">
-        <v>0.006569517285974537</v>
+        <v>0.01009049634593183</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.200778</v>
+        <v>1.352356</v>
       </c>
       <c r="H5">
-        <v>3.602334</v>
+        <v>4.057068</v>
       </c>
       <c r="I5">
-        <v>0.07334464402956963</v>
+        <v>0.08465764667810434</v>
       </c>
       <c r="J5">
-        <v>0.08784648530804996</v>
+        <v>0.1020450778651008</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N5">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O5">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P5">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q5">
-        <v>37.15701312185901</v>
+        <v>25.19150499994</v>
       </c>
       <c r="R5">
-        <v>222.942078731154</v>
+        <v>151.14902999964</v>
       </c>
       <c r="S5">
-        <v>0.009293761516432523</v>
+        <v>0.006593123952739664</v>
       </c>
       <c r="T5">
-        <v>0.007748160042698698</v>
+        <v>0.005439375433198046</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.200778</v>
+        <v>1.352356</v>
       </c>
       <c r="H6">
-        <v>3.602334</v>
+        <v>4.057068</v>
       </c>
       <c r="I6">
-        <v>0.07334464402956963</v>
+        <v>0.08465764667810434</v>
       </c>
       <c r="J6">
-        <v>0.08784648530804996</v>
+        <v>0.1020450778651008</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N6">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O6">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P6">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q6">
-        <v>17.56574748088267</v>
+        <v>20.324241872696</v>
       </c>
       <c r="R6">
-        <v>158.091727327944</v>
+        <v>182.918176854264</v>
       </c>
       <c r="S6">
-        <v>0.004393568110811357</v>
+        <v>0.005319263216408293</v>
       </c>
       <c r="T6">
-        <v>0.005494341901425999</v>
+        <v>0.006582646527528683</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.593439</v>
       </c>
       <c r="I7">
-        <v>0.1953254108237577</v>
+        <v>0.2001834746890973</v>
       </c>
       <c r="J7">
-        <v>0.2339455192570077</v>
+        <v>0.2412982059332244</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N7">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O7">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P7">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q7">
-        <v>174.0622529045773</v>
+        <v>178.385492486483</v>
       </c>
       <c r="R7">
-        <v>1566.560276141196</v>
+        <v>1605.469432378347</v>
       </c>
       <c r="S7">
-        <v>0.0435366820848266</v>
+        <v>0.04668707420762251</v>
       </c>
       <c r="T7">
-        <v>0.0544444539369054</v>
+        <v>0.05777576600557735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.593439</v>
       </c>
       <c r="I8">
-        <v>0.1953254108237577</v>
+        <v>0.2001834746890973</v>
       </c>
       <c r="J8">
-        <v>0.2339455192570077</v>
+        <v>0.2412982059332244</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>380.128601</v>
       </c>
       <c r="O8">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P8">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q8">
         <v>405.1933939832044</v>
@@ -948,10 +948,10 @@
         <v>3646.740545848839</v>
       </c>
       <c r="S8">
-        <v>0.1013475103438395</v>
+        <v>0.1060472675756731</v>
       </c>
       <c r="T8">
-        <v>0.1267393286375004</v>
+        <v>0.1312346558650403</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.593439</v>
       </c>
       <c r="I9">
-        <v>0.1953254108237577</v>
+        <v>0.2001834746890973</v>
       </c>
       <c r="J9">
-        <v>0.2339455192570077</v>
+        <v>0.2412982059332244</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N9">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O9">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P9">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q9">
-        <v>55.93385536189201</v>
+        <v>73.66961165781166</v>
       </c>
       <c r="R9">
-        <v>503.4046982570281</v>
+        <v>663.026504920305</v>
       </c>
       <c r="S9">
-        <v>0.01399025025836218</v>
+        <v>0.01928082030872328</v>
       </c>
       <c r="T9">
-        <v>0.01749539696831062</v>
+        <v>0.02386022644294349</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9.593439</v>
       </c>
       <c r="I10">
-        <v>0.1953254108237577</v>
+        <v>0.2001834746890973</v>
       </c>
       <c r="J10">
-        <v>0.2339455192570077</v>
+        <v>0.2412982059332244</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N10">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O10">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P10">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q10">
-        <v>98.95349481940151</v>
+        <v>59.568428859245</v>
       </c>
       <c r="R10">
-        <v>593.720968916409</v>
+        <v>357.41057315547</v>
       </c>
       <c r="S10">
-        <v>0.02475037966730539</v>
+        <v>0.01559025691954062</v>
       </c>
       <c r="T10">
-        <v>0.02063426121283239</v>
+        <v>0.0128620758677163</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>9.593439</v>
       </c>
       <c r="I11">
-        <v>0.1953254108237577</v>
+        <v>0.2001834746890973</v>
       </c>
       <c r="J11">
-        <v>0.2339455192570077</v>
+        <v>0.2412982059332244</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N11">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O11">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P11">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q11">
-        <v>46.77965090056933</v>
+        <v>48.059183288758</v>
       </c>
       <c r="R11">
-        <v>421.016858105124</v>
+        <v>432.532649598822</v>
       </c>
       <c r="S11">
-        <v>0.01170058846942399</v>
+        <v>0.01257805567753776</v>
       </c>
       <c r="T11">
-        <v>0.01463207850145887</v>
+        <v>0.01556548175194703</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.622028</v>
+        <v>2.438989</v>
       </c>
       <c r="H12">
-        <v>4.866084</v>
+        <v>7.316967</v>
       </c>
       <c r="I12">
-        <v>0.09907498827093329</v>
+        <v>0.1526810019061423</v>
       </c>
       <c r="J12">
-        <v>0.118664281716725</v>
+        <v>0.1840394263175705</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N12">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O12">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P12">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q12">
-        <v>88.289667955664</v>
+        <v>136.055564829499</v>
       </c>
       <c r="R12">
-        <v>794.607011600976</v>
+        <v>1224.500083465491</v>
       </c>
       <c r="S12">
-        <v>0.02208312911627013</v>
+        <v>0.03560848005639324</v>
       </c>
       <c r="T12">
-        <v>0.02761588270807918</v>
+        <v>0.04406588432599939</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.622028</v>
+        <v>2.438989</v>
       </c>
       <c r="H13">
-        <v>4.866084</v>
+        <v>7.316967</v>
       </c>
       <c r="I13">
-        <v>0.09907498827093329</v>
+        <v>0.1526810019061423</v>
       </c>
       <c r="J13">
-        <v>0.118664281716725</v>
+        <v>0.1840394263175705</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>380.128601</v>
       </c>
       <c r="O13">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P13">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q13">
-        <v>205.526411474276</v>
+        <v>309.0431588081296</v>
       </c>
       <c r="R13">
-        <v>1849.737703268484</v>
+        <v>2781.388429273167</v>
       </c>
       <c r="S13">
-        <v>0.05140653925291983</v>
+        <v>0.08088281556711518</v>
       </c>
       <c r="T13">
-        <v>0.06428604166385823</v>
+        <v>0.1000933707110512</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.622028</v>
+        <v>2.438989</v>
       </c>
       <c r="H14">
-        <v>4.866084</v>
+        <v>7.316967</v>
       </c>
       <c r="I14">
-        <v>0.09907498827093329</v>
+        <v>0.1526810019061423</v>
       </c>
       <c r="J14">
-        <v>0.118664281716725</v>
+        <v>0.1840394263175705</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N14">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O14">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P14">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q14">
-        <v>28.37135240395201</v>
+        <v>56.18820502251832</v>
       </c>
       <c r="R14">
-        <v>255.342171635568</v>
+        <v>505.693845202665</v>
       </c>
       <c r="S14">
-        <v>0.007096280378518284</v>
+        <v>0.01470558429900456</v>
       </c>
       <c r="T14">
-        <v>0.008874197382309391</v>
+        <v>0.01819832173796539</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.622028</v>
+        <v>2.438989</v>
       </c>
       <c r="H15">
-        <v>4.866084</v>
+        <v>7.316967</v>
       </c>
       <c r="I15">
-        <v>0.09907498827093329</v>
+        <v>0.1526810019061423</v>
       </c>
       <c r="J15">
-        <v>0.118664281716725</v>
+        <v>0.1840394263175705</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N15">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O15">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P15">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q15">
-        <v>50.19222177623401</v>
+        <v>45.43315782848499</v>
       </c>
       <c r="R15">
-        <v>301.153330657404</v>
+        <v>272.59894697091</v>
       </c>
       <c r="S15">
-        <v>0.01255414523332041</v>
+        <v>0.01189077195381139</v>
       </c>
       <c r="T15">
-        <v>0.01046632478088246</v>
+        <v>0.009809973740967813</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.622028</v>
+        <v>2.438989</v>
       </c>
       <c r="H16">
-        <v>4.866084</v>
+        <v>7.316967</v>
       </c>
       <c r="I16">
-        <v>0.09907498827093329</v>
+        <v>0.1526810019061423</v>
       </c>
       <c r="J16">
-        <v>0.118664281716725</v>
+        <v>0.1840394263175705</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N16">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O16">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P16">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q16">
-        <v>23.728061519216</v>
+        <v>36.654994957574</v>
       </c>
       <c r="R16">
-        <v>213.552553672944</v>
+        <v>329.894954618166</v>
       </c>
       <c r="S16">
-        <v>0.005934894289904647</v>
+        <v>0.009593350029817921</v>
       </c>
       <c r="T16">
-        <v>0.007421835181595772</v>
+        <v>0.01187187580158675</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.108010999999999</v>
+        <v>8.165625500000001</v>
       </c>
       <c r="H17">
-        <v>16.216022</v>
+        <v>16.331251</v>
       </c>
       <c r="I17">
-        <v>0.4952449000421683</v>
+        <v>0.5111691289015016</v>
       </c>
       <c r="J17">
-        <v>0.3954437701717871</v>
+        <v>0.4107704825084287</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N17">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O17">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P17">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q17">
-        <v>441.3324547855347</v>
+        <v>455.5079131511706</v>
       </c>
       <c r="R17">
-        <v>2647.994728713208</v>
+        <v>2733.047478907024</v>
       </c>
       <c r="S17">
-        <v>0.1103866602729043</v>
+        <v>0.1192155900517493</v>
       </c>
       <c r="T17">
-        <v>0.09202877746122579</v>
+        <v>0.09835373283286121</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.108010999999999</v>
+        <v>8.165625500000001</v>
       </c>
       <c r="H18">
-        <v>16.216022</v>
+        <v>16.331251</v>
       </c>
       <c r="I18">
-        <v>0.4952449000421683</v>
+        <v>0.5111691289015016</v>
       </c>
       <c r="J18">
-        <v>0.3954437701717871</v>
+        <v>0.4107704825084287</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>380.128601</v>
       </c>
       <c r="O18">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P18">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q18">
-        <v>1027.362292774204</v>
+        <v>1034.662599201642</v>
       </c>
       <c r="R18">
-        <v>6164.173756645222</v>
+        <v>6207.975595209852</v>
       </c>
       <c r="S18">
-        <v>0.2569652223849438</v>
+        <v>0.2707920295280679</v>
       </c>
       <c r="T18">
-        <v>0.2142305529279892</v>
+        <v>0.2234054028832201</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.108010999999999</v>
+        <v>8.165625500000001</v>
       </c>
       <c r="H19">
-        <v>16.216022</v>
+        <v>16.331251</v>
       </c>
       <c r="I19">
-        <v>0.4952449000421683</v>
+        <v>0.5111691289015016</v>
       </c>
       <c r="J19">
-        <v>0.3954437701717871</v>
+        <v>0.4107704825084287</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N19">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O19">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P19">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q19">
-        <v>141.819523076124</v>
+        <v>188.1155838468742</v>
       </c>
       <c r="R19">
-        <v>850.9171384567441</v>
+        <v>1128.693503081245</v>
       </c>
       <c r="S19">
-        <v>0.03547208763850588</v>
+        <v>0.04923363497922758</v>
       </c>
       <c r="T19">
-        <v>0.02957289269644163</v>
+        <v>0.04061810857988959</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.108010999999999</v>
+        <v>8.165625500000001</v>
       </c>
       <c r="H20">
-        <v>16.216022</v>
+        <v>16.331251</v>
       </c>
       <c r="I20">
-        <v>0.4952449000421683</v>
+        <v>0.5111691289015016</v>
       </c>
       <c r="J20">
-        <v>0.3954437701717871</v>
+        <v>0.4107704825084287</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N20">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O20">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P20">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q20">
-        <v>250.8952288592705</v>
+        <v>152.1081694545575</v>
       </c>
       <c r="R20">
-        <v>1003.580915437082</v>
+        <v>608.4326778182301</v>
       </c>
       <c r="S20">
-        <v>0.06275424816794742</v>
+        <v>0.0398097698188582</v>
       </c>
       <c r="T20">
-        <v>0.03487859085579599</v>
+        <v>0.02189556731185946</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.108010999999999</v>
+        <v>8.165625500000001</v>
       </c>
       <c r="H21">
-        <v>16.216022</v>
+        <v>16.331251</v>
       </c>
       <c r="I21">
-        <v>0.4952449000421683</v>
+        <v>0.5111691289015016</v>
       </c>
       <c r="J21">
-        <v>0.3954437701717871</v>
+        <v>0.4107704825084287</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N21">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O21">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P21">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q21">
-        <v>118.6091632243587</v>
+        <v>122.719274883133</v>
       </c>
       <c r="R21">
-        <v>711.6549793461519</v>
+        <v>736.3156492987981</v>
       </c>
       <c r="S21">
-        <v>0.02966668157786676</v>
+        <v>0.0321181045235985</v>
       </c>
       <c r="T21">
-        <v>0.0247329562303345</v>
+        <v>0.0264976709005985</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.243090333333333</v>
+        <v>0.819627</v>
       </c>
       <c r="H22">
-        <v>6.729271</v>
+        <v>2.458881</v>
       </c>
       <c r="I22">
-        <v>0.1370100568335712</v>
+        <v>0.05130874782515448</v>
       </c>
       <c r="J22">
-        <v>0.1640999435464303</v>
+        <v>0.06184680737567548</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N22">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O22">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P22">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q22">
-        <v>122.0951184101382</v>
+        <v>45.721737340557</v>
       </c>
       <c r="R22">
-        <v>1098.856065691244</v>
+        <v>411.495636065013</v>
       </c>
       <c r="S22">
-        <v>0.030538593322962</v>
+        <v>0.01196629902110318</v>
       </c>
       <c r="T22">
-        <v>0.03818979669214067</v>
+        <v>0.01480842618497496</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.243090333333333</v>
+        <v>0.819627</v>
       </c>
       <c r="H23">
-        <v>6.729271</v>
+        <v>2.458881</v>
       </c>
       <c r="I23">
-        <v>0.1370100568335712</v>
+        <v>0.05130874782515448</v>
       </c>
       <c r="J23">
-        <v>0.1640999435464303</v>
+        <v>0.06184680737567548</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>380.128601</v>
       </c>
       <c r="O23">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P23">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q23">
-        <v>284.2209301088746</v>
+        <v>103.854554950609</v>
       </c>
       <c r="R23">
-        <v>2557.988370979871</v>
+        <v>934.690994555481</v>
       </c>
       <c r="S23">
-        <v>0.07108971686576621</v>
+        <v>0.02718082757848761</v>
       </c>
       <c r="T23">
-        <v>0.0889006839736825</v>
+        <v>0.03363657202053259</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.243090333333333</v>
+        <v>0.819627</v>
       </c>
       <c r="H24">
-        <v>6.729271</v>
+        <v>2.458881</v>
       </c>
       <c r="I24">
-        <v>0.1370100568335712</v>
+        <v>0.05130874782515448</v>
       </c>
       <c r="J24">
-        <v>0.1640999435464303</v>
+        <v>0.06184680737567548</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N24">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O24">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P24">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q24">
-        <v>39.23453005798801</v>
+        <v>18.882155646455</v>
       </c>
       <c r="R24">
-        <v>353.1107705218921</v>
+        <v>169.939400818095</v>
       </c>
       <c r="S24">
-        <v>0.009813392814228468</v>
+        <v>0.004941840222420115</v>
       </c>
       <c r="T24">
-        <v>0.01227206087955952</v>
+        <v>0.006115581436047213</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.243090333333333</v>
+        <v>0.819627</v>
       </c>
       <c r="H25">
-        <v>6.729271</v>
+        <v>2.458881</v>
       </c>
       <c r="I25">
-        <v>0.1370100568335712</v>
+        <v>0.05130874782515448</v>
       </c>
       <c r="J25">
-        <v>0.1640999435464303</v>
+        <v>0.06184680737567548</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N25">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O25">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P25">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q25">
-        <v>69.41044635160017</v>
+        <v>15.267901106355</v>
       </c>
       <c r="R25">
-        <v>416.462678109601</v>
+        <v>91.60740663813</v>
       </c>
       <c r="S25">
-        <v>0.01736103311171185</v>
+        <v>0.003995917055872974</v>
       </c>
       <c r="T25">
-        <v>0.01447380189585172</v>
+        <v>0.003296660766976902</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.243090333333333</v>
+        <v>0.819627</v>
       </c>
       <c r="H26">
-        <v>6.729271</v>
+        <v>2.458881</v>
       </c>
       <c r="I26">
-        <v>0.1370100568335712</v>
+        <v>0.05130874782515448</v>
       </c>
       <c r="J26">
-        <v>0.1640999435464303</v>
+        <v>0.06184680737567548</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N26">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O26">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P26">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q26">
-        <v>32.81335798302622</v>
+        <v>12.317982390282</v>
       </c>
       <c r="R26">
-        <v>295.3202218472359</v>
+        <v>110.861841512538</v>
       </c>
       <c r="S26">
-        <v>0.008207320718902704</v>
+        <v>0.0032238639472706</v>
       </c>
       <c r="T26">
-        <v>0.01026360010519591</v>
+        <v>0.003989566967143823</v>
       </c>
     </row>
   </sheetData>
